--- a/Data/EUDA/Tampon/compo_menages_hommes.xlsx
+++ b/Data/EUDA/Tampon/compo_menages_hommes.xlsx
@@ -441,47 +441,47 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Alone</t>
+          <t>Alone.menage</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>With the family of origin (parents, etc.)</t>
+          <t>With the family of origin (parents, etc.).menage</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>With partner / children</t>
+          <t>With partner / children.menage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>With friends or other people (with no family relation)</t>
+          <t>With friends or other people (with no family relation).menage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>In detention</t>
+          <t>In detention.menage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>In institutions /shelters (not detention)</t>
+          <t>In institutions /shelters (not detention).menage</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Other.menage</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Not known / missing</t>
+          <t>Not known / missing.menage</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Total.menage</t>
         </is>
       </c>
     </row>
